--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/53.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/53.xlsx
@@ -479,13 +479,13 @@
         <v>-0.01444562464226062</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.533658692980634</v>
+        <v>-1.495544749890648</v>
       </c>
       <c r="F2" t="n">
-        <v>0.22716339325003</v>
+        <v>0.2201523550708111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1163359269194939</v>
+        <v>0.1696716603390813</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0136506782710674</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.429504368774398</v>
+        <v>-1.424462154539722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2036741281471088</v>
+        <v>0.217438817979959</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09147921965930357</v>
+        <v>0.1484573993604304</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.02479087712462558</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.420590378083726</v>
+        <v>-1.451448704803117</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1950980335113544</v>
+        <v>0.1790424816166385</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1306544247268313</v>
+        <v>0.1750786071384529</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05119245752142276</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.500435093876814</v>
+        <v>-1.528742732326045</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2225639814266729</v>
+        <v>0.1834637966023852</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08386618977213431</v>
+        <v>0.1565059126107978</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09015456258935362</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.499872747012852</v>
+        <v>-1.497399518668639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3316830599416377</v>
+        <v>0.28119260647908</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09463738892350501</v>
+        <v>0.1868866714402953</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1326370933593539</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.434577688963589</v>
+        <v>-1.369679079354212</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3868101303888342</v>
+        <v>0.3553821377573603</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02497956827346281</v>
+        <v>0.0927106495056579</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1663300868065374</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.160809913839809</v>
+        <v>-1.069271798832107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4288263459686544</v>
+        <v>0.4173342205773675</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03071899784784659</v>
+        <v>0.04597303796713097</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1790437941767188</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5802294712467164</v>
+        <v>-0.5520249093918559</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3683075767390051</v>
+        <v>0.3848516750957962</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02413429422167455</v>
+        <v>0.01007127717171003</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1608166500352769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02318213203908628</v>
+        <v>0.04279901076533407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3163710013518777</v>
+        <v>0.4105055486804963</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05920595297604139</v>
+        <v>-0.03778492888797284</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1050254858917903</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8022905350723183</v>
+        <v>0.6829705332387422</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1279610150183119</v>
+        <v>0.2264028221661252</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.007762193495726435</v>
+        <v>-0.02225512861661379</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0104436495760233</v>
       </c>
       <c r="E12" t="n">
-        <v>1.569822033740195</v>
+        <v>1.389073261027262</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2595746540186064</v>
+        <v>-0.1534051518963952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09938562139198864</v>
+        <v>0.05066820733673751</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1184437686075713</v>
       </c>
       <c r="E13" t="n">
-        <v>2.312955485496797</v>
+        <v>2.052662687884412</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6222389776990924</v>
+        <v>-0.5307124511842486</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2227524469157881</v>
+        <v>0.1618189316259501</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2715098413581198</v>
       </c>
       <c r="E14" t="n">
-        <v>2.999118686521069</v>
+        <v>2.639400889629953</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.157785317203815</v>
+        <v>-1.090022520096429</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3941303983511644</v>
+        <v>0.2983685826569821</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4357970902849664</v>
       </c>
       <c r="E15" t="n">
-        <v>3.701650938667906</v>
+        <v>3.333940741228683</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.74347445538535</v>
+        <v>-1.699870006363278</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5383162562550821</v>
+        <v>0.3984144811846427</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6029858983383114</v>
       </c>
       <c r="E16" t="n">
-        <v>4.313559956822162</v>
+        <v>3.963582593138713</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.248497924542893</v>
+        <v>-2.269706696235453</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7206624112204186</v>
+        <v>0.6005092577424047</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7713793281215989</v>
       </c>
       <c r="E17" t="n">
-        <v>4.92405639868907</v>
+        <v>4.532591010731864</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.797924838809048</v>
+        <v>-2.893146264783632</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9312033693097878</v>
+        <v>0.7922896657356804</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9433060480799643</v>
       </c>
       <c r="E18" t="n">
-        <v>5.286822579122573</v>
+        <v>4.902927526605164</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.343093591870487</v>
+        <v>-3.498446182484646</v>
       </c>
       <c r="G18" t="n">
-        <v>1.121876771274766</v>
+        <v>0.9960562348684088</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.119821885599834</v>
       </c>
       <c r="E19" t="n">
-        <v>5.605384148588084</v>
+        <v>5.254422372932362</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.848981318626982</v>
+        <v>-4.07895343459653</v>
       </c>
       <c r="G19" t="n">
-        <v>1.358002071991686</v>
+        <v>1.239273083293878</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.296484083728094</v>
       </c>
       <c r="E20" t="n">
-        <v>5.955640855941484</v>
+        <v>5.614934286544605</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.352087807097506</v>
+        <v>-4.644455418219056</v>
       </c>
       <c r="G20" t="n">
-        <v>1.531194537440387</v>
+        <v>1.419260065081553</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.463287477206483</v>
       </c>
       <c r="E21" t="n">
-        <v>6.171194142152369</v>
+        <v>5.898760873469313</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.662140373201705</v>
+        <v>-5.015600078989047</v>
       </c>
       <c r="G21" t="n">
-        <v>1.673619554350533</v>
+        <v>1.560403638649852</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.609771469581857</v>
       </c>
       <c r="E22" t="n">
-        <v>6.309178936535789</v>
+        <v>6.066968457226953</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.941193415949845</v>
+        <v>-5.290763047660889</v>
       </c>
       <c r="G22" t="n">
-        <v>1.871961488984265</v>
+        <v>1.756790777514605</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.729392052738716</v>
       </c>
       <c r="E23" t="n">
-        <v>6.380137108068658</v>
+        <v>6.219480342289159</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.198981269342825</v>
+        <v>-5.514922314620688</v>
       </c>
       <c r="G23" t="n">
-        <v>1.977396646611671</v>
+        <v>1.880941961028703</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.819307854180752</v>
       </c>
       <c r="E24" t="n">
-        <v>6.471881376265101</v>
+        <v>6.394480002703065</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.315187016200926</v>
+        <v>-5.616752231127837</v>
       </c>
       <c r="G24" t="n">
-        <v>2.067298954364335</v>
+        <v>1.961807074113991</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.878767637677231</v>
       </c>
       <c r="E25" t="n">
-        <v>6.479657864893638</v>
+        <v>6.433533223635243</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.338173401705869</v>
+        <v>-5.646489676123535</v>
       </c>
       <c r="G25" t="n">
-        <v>2.128965594307624</v>
+        <v>2.02080104165177</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.908026062237856</v>
       </c>
       <c r="E26" t="n">
-        <v>6.537100194229771</v>
+        <v>6.483155150054111</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.339087062879637</v>
+        <v>-5.617562205786558</v>
       </c>
       <c r="G26" t="n">
-        <v>2.153845478553531</v>
+        <v>2.02402325258703</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.908144002612851</v>
       </c>
       <c r="E27" t="n">
-        <v>6.426961938263959</v>
+        <v>6.412009122952805</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.331406941718026</v>
+        <v>-5.61674216743667</v>
       </c>
       <c r="G27" t="n">
-        <v>2.163030883945356</v>
+        <v>2.03086717250082</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.880469324063844</v>
       </c>
       <c r="E28" t="n">
-        <v>6.33963593544988</v>
+        <v>6.367906978658506</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.25047565223931</v>
+        <v>-5.495018163255692</v>
       </c>
       <c r="G28" t="n">
-        <v>2.125828772267109</v>
+        <v>1.98955602522332</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.826649912382224</v>
       </c>
       <c r="E29" t="n">
-        <v>6.247103649739079</v>
+        <v>6.288641687508328</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.095444489821797</v>
+        <v>-5.340940611816275</v>
       </c>
       <c r="G29" t="n">
-        <v>2.044329341678003</v>
+        <v>1.903363255026638</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.748529567257334</v>
       </c>
       <c r="E30" t="n">
-        <v>6.095171189319784</v>
+        <v>6.195277469994442</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.895820501925542</v>
+        <v>-5.155156029035771</v>
       </c>
       <c r="G30" t="n">
-        <v>1.992880092911597</v>
+        <v>1.872750726339977</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.648407725650145</v>
       </c>
       <c r="E31" t="n">
-        <v>5.93030841055343</v>
+        <v>6.102035236615906</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.763806526007147</v>
+        <v>-4.992540198042557</v>
       </c>
       <c r="G31" t="n">
-        <v>1.885857311762616</v>
+        <v>1.762585023943712</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.529697403297434</v>
       </c>
       <c r="E32" t="n">
-        <v>5.744984012923533</v>
+        <v>5.936267335565258</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.513110220322716</v>
+        <v>-4.740592945050116</v>
       </c>
       <c r="G32" t="n">
-        <v>1.817021054264153</v>
+        <v>1.730233611407642</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.397021713551334</v>
       </c>
       <c r="E33" t="n">
-        <v>5.480626094000622</v>
+        <v>5.690265589329758</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.364550621245837</v>
+        <v>-4.573428325649715</v>
       </c>
       <c r="G33" t="n">
-        <v>1.722469321192639</v>
+        <v>1.627802313113219</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.256080380712542</v>
       </c>
       <c r="E34" t="n">
-        <v>5.265465596705563</v>
+        <v>5.480840786078837</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.151502279254357</v>
+        <v>-4.347639045681306</v>
       </c>
       <c r="G34" t="n">
-        <v>1.575299121417393</v>
+        <v>1.493367866989149</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.11306049229405</v>
       </c>
       <c r="E35" t="n">
-        <v>5.007797287765225</v>
+        <v>5.25018586391167</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.012703240767478</v>
+        <v>-4.218132453665022</v>
       </c>
       <c r="G35" t="n">
-        <v>1.511328811078026</v>
+        <v>1.441803953135515</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9742103185980294</v>
       </c>
       <c r="E36" t="n">
-        <v>4.718200851238479</v>
+        <v>5.014771120783163</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.8519226610906</v>
+        <v>-4.026172728992782</v>
       </c>
       <c r="G36" t="n">
-        <v>1.469402253837688</v>
+        <v>1.406627388024748</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8437902541976234</v>
       </c>
       <c r="E37" t="n">
-        <v>4.401956980344612</v>
+        <v>4.697428172829794</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.712785726548803</v>
+        <v>-3.911829679881471</v>
       </c>
       <c r="G37" t="n">
-        <v>1.377540270950633</v>
+        <v>1.32835992710173</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7243995464725133</v>
       </c>
       <c r="E38" t="n">
-        <v>4.120459070563727</v>
+        <v>4.416839044857264</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.618976571901229</v>
+        <v>-3.825845502556236</v>
       </c>
       <c r="G38" t="n">
-        <v>1.268971340886095</v>
+        <v>1.245166746793295</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.61746197353859</v>
       </c>
       <c r="E39" t="n">
-        <v>3.856171902439319</v>
+        <v>4.146853997770676</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.56483848783138</v>
+        <v>-3.812114968281284</v>
       </c>
       <c r="G39" t="n">
-        <v>1.181311101541157</v>
+        <v>1.181370263846802</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5233928998998516</v>
       </c>
       <c r="E40" t="n">
-        <v>3.517207266495232</v>
+        <v>3.828331463228477</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.482620570685064</v>
+        <v>-3.712531999547275</v>
       </c>
       <c r="G40" t="n">
-        <v>1.095429390889616</v>
+        <v>1.101082135721717</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4422872465195094</v>
       </c>
       <c r="E41" t="n">
-        <v>3.302788432743099</v>
+        <v>3.625903669981211</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.395357999621366</v>
+        <v>-3.625326151106515</v>
       </c>
       <c r="G41" t="n">
-        <v>1.034318388682845</v>
+        <v>1.038423154837359</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3730419119557408</v>
       </c>
       <c r="E42" t="n">
-        <v>3.008083300627912</v>
+        <v>3.318034009979093</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.311871142507077</v>
+        <v>-3.596970633884159</v>
       </c>
       <c r="G42" t="n">
-        <v>1.018610491573875</v>
+        <v>1.02308852918256</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3147794581356019</v>
       </c>
       <c r="E43" t="n">
-        <v>2.676108355639358</v>
+        <v>3.019958456204197</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.217116305850206</v>
+        <v>-3.506181196507165</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9280952135410797</v>
+        <v>0.958774223581507</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2656794293859326</v>
       </c>
       <c r="E44" t="n">
-        <v>2.447651587591191</v>
+        <v>2.80069929196139</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.181953463954665</v>
+        <v>-3.457717509453441</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9123873164321102</v>
+        <v>0.9449015777888724</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2232308568770198</v>
       </c>
       <c r="E45" t="n">
-        <v>2.187248394336315</v>
+        <v>2.524245426177212</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.091077417841573</v>
+        <v>-3.359551996372195</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8416895810282126</v>
+        <v>0.8633984876757061</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1850522837527397</v>
       </c>
       <c r="E46" t="n">
-        <v>2.038308204757146</v>
+        <v>2.356004906703028</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.001926227402325</v>
+        <v>-3.296264492230448</v>
       </c>
       <c r="G46" t="n">
-        <v>0.802780301375747</v>
+        <v>0.8453076304826821</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1491135137369939</v>
       </c>
       <c r="E47" t="n">
-        <v>1.81927227148203</v>
+        <v>2.130603231324693</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.925361665008787</v>
+        <v>-3.199030023062257</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7273306739793052</v>
+        <v>0.7443078160165874</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1137730877930088</v>
       </c>
       <c r="E48" t="n">
-        <v>1.692660058037254</v>
+        <v>1.989731072457547</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.856986507541946</v>
+        <v>-3.165767389035125</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6570854997175546</v>
+        <v>0.6646832815878052</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.07805250463945536</v>
       </c>
       <c r="E49" t="n">
-        <v>1.509275208159416</v>
+        <v>1.784120713119009</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.821327495175871</v>
+        <v>-3.107627310444793</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5748285476479278</v>
+        <v>0.5875984568570018</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04214969874726865</v>
       </c>
       <c r="E50" t="n">
-        <v>1.415354742988336</v>
+        <v>1.675105931039768</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.737613442609493</v>
+        <v>-3.026637773541449</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5642555727165002</v>
+        <v>0.5365645640714616</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.00602707765920122</v>
       </c>
       <c r="E51" t="n">
-        <v>1.327787211586263</v>
+        <v>1.544449333587476</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.670763696755199</v>
+        <v>-2.950709968334437</v>
       </c>
       <c r="G51" t="n">
-        <v>0.473158430358087</v>
+        <v>0.4624085784304025</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.03040997827923968</v>
       </c>
       <c r="E52" t="n">
-        <v>1.2764575072725</v>
+        <v>1.471092953953634</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.588041375209214</v>
+        <v>-2.838360139994737</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3962462131788034</v>
+        <v>0.3773935650605209</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.06720028400824198</v>
       </c>
       <c r="E53" t="n">
-        <v>1.239334075361553</v>
+        <v>1.369333788244988</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.548484969718718</v>
+        <v>-2.803952074936673</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3882251463588897</v>
+        <v>0.3818758721139424</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1042663973488195</v>
       </c>
       <c r="E54" t="n">
-        <v>1.159640009975622</v>
+        <v>1.23144414148714</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.490366238352073</v>
+        <v>-2.756007430378861</v>
       </c>
       <c r="G54" t="n">
-        <v>0.333786066435065</v>
+        <v>0.3136336773546324</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1416819498381215</v>
       </c>
       <c r="E55" t="n">
-        <v>1.135296855925253</v>
+        <v>1.169216374521243</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.46876589758504</v>
+        <v>-2.714555391425033</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3039084921638847</v>
+        <v>0.2823825617194154</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1795588703398217</v>
       </c>
       <c r="E56" t="n">
-        <v>1.122758716573343</v>
+        <v>1.116488122095697</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.437358032335899</v>
+        <v>-2.683069456329268</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2587188593029443</v>
+        <v>0.2450968909084532</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2177196327216721</v>
       </c>
       <c r="E57" t="n">
-        <v>1.01172814665745</v>
+        <v>0.972803009067389</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.401466640191983</v>
+        <v>-2.662517569205566</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2242699295595373</v>
+        <v>0.2003000469633386</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2558177276440855</v>
       </c>
       <c r="E58" t="n">
-        <v>1.017775510167407</v>
+        <v>0.9362364347343127</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.426250156970963</v>
+        <v>-2.679531306483452</v>
       </c>
       <c r="G58" t="n">
-        <v>0.214611225722555</v>
+        <v>0.1677071058392758</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2939116356470393</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9964270666398716</v>
+        <v>0.8596218588452822</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.359221094437705</v>
+        <v>-2.617248036735971</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2094012833017731</v>
+        <v>0.1665439871087173</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3319548741551275</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9929669866406798</v>
+        <v>0.8040403974939084</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.379003261667352</v>
+        <v>-2.649192022259974</v>
       </c>
       <c r="G60" t="n">
-        <v>0.190034472052992</v>
+        <v>0.1159614356239706</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3696920384175764</v>
       </c>
       <c r="E61" t="n">
-        <v>1.098111822025954</v>
+        <v>0.8419969810492935</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.402164999366859</v>
+        <v>-2.662085135445751</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2048494452912023</v>
+        <v>0.1179900317948347</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4066717461299437</v>
       </c>
       <c r="E62" t="n">
-        <v>1.120113490598287</v>
+        <v>0.8078402033100488</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.391159590675617</v>
+        <v>-2.648543676580591</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1709329762985963</v>
+        <v>0.07579876898078775</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4419991154422073</v>
       </c>
       <c r="E63" t="n">
-        <v>1.181013460250904</v>
+        <v>0.8049656471605352</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.401530681863041</v>
+        <v>-2.650352091387149</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1390597415730963</v>
+        <v>0.04959108742160045</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4747883471035463</v>
       </c>
       <c r="E64" t="n">
-        <v>1.268309576951823</v>
+        <v>0.8245843556488133</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.466659231567552</v>
+        <v>-2.729808897629825</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1638304500178652</v>
+        <v>0.08824054086577138</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5037335815999967</v>
       </c>
       <c r="E65" t="n">
-        <v>1.307822678074269</v>
+        <v>0.8183131512504898</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.60305030322263</v>
+        <v>-2.839897750020819</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1295083837752217</v>
+        <v>0.02676968545971836</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5276462473057848</v>
       </c>
       <c r="E66" t="n">
-        <v>1.350762923479363</v>
+        <v>0.81556728836377</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.682777304325106</v>
+        <v>-2.903854032184621</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1334905558737098</v>
+        <v>0.008201260376800485</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5455021678098326</v>
       </c>
       <c r="E67" t="n">
-        <v>1.395582944410194</v>
+        <v>0.7772209654959429</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.730047376614434</v>
+        <v>-2.922080291767883</v>
       </c>
       <c r="G67" t="n">
-        <v>0.09350964559219785</v>
+        <v>-0.04113278348264293</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.556795951761447</v>
       </c>
       <c r="E68" t="n">
-        <v>1.430313047585582</v>
+        <v>0.7877280689942816</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.82534138314955</v>
+        <v>-2.992300764242225</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05286331185235377</v>
+        <v>-0.1044035148057795</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5612258516351358</v>
       </c>
       <c r="E69" t="n">
-        <v>1.421220350136622</v>
+        <v>0.7530327312974684</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.867962640040704</v>
+        <v>-3.024201750358517</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08453771243723392</v>
+        <v>-0.08073737270660132</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.558667496776776</v>
       </c>
       <c r="E70" t="n">
-        <v>1.434328155400614</v>
+        <v>0.7359586118725833</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.908804758317785</v>
+        <v>-3.094832699448311</v>
       </c>
       <c r="G70" t="n">
-        <v>0.08369358222061461</v>
+        <v>-0.09493510621994261</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5495451608017036</v>
       </c>
       <c r="E71" t="n">
-        <v>1.425196423028342</v>
+        <v>0.7109439351571151</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.976972542754531</v>
+        <v>-3.130604547139585</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07988706727702997</v>
+        <v>-0.1157218128041932</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5344744773632708</v>
       </c>
       <c r="E72" t="n">
-        <v>1.414739942946174</v>
+        <v>0.6818043649047999</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.050808929960974</v>
+        <v>-3.197139268964338</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03439735344312957</v>
+        <v>-0.1830228999592809</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5141390468601389</v>
       </c>
       <c r="E73" t="n">
-        <v>1.455791873936055</v>
+        <v>0.683915300367025</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.107971610666818</v>
+        <v>-3.264639190260046</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.025486488362025</v>
+        <v>-0.2669589636519951</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4890139649712735</v>
       </c>
       <c r="E74" t="n">
-        <v>1.438804973167945</v>
+        <v>0.6294725609191398</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.154195364035184</v>
+        <v>-3.308463210725747</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.04963324795448061</v>
+        <v>-0.3093142951280873</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4597154810714376</v>
       </c>
       <c r="E75" t="n">
-        <v>1.420637265969651</v>
+        <v>0.6297641030026253</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.163145035085447</v>
+        <v>-3.309711108430374</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.03651751372169038</v>
+        <v>-0.2987120440041758</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4266777784905861</v>
       </c>
       <c r="E76" t="n">
-        <v>1.432705766400465</v>
+        <v>0.6429938924019675</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.226254747349922</v>
+        <v>-3.363429262114282</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.04894281774840181</v>
+        <v>-0.3157513979504862</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3904413717479897</v>
       </c>
       <c r="E77" t="n">
-        <v>1.321845974274061</v>
+        <v>0.5613974844252588</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.244923504384165</v>
+        <v>-3.394045145364666</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.06242694406994788</v>
+        <v>-0.3382025780615823</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3512422519523984</v>
       </c>
       <c r="E78" t="n">
-        <v>1.360267927305805</v>
+        <v>0.6065047779948382</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.232569866036971</v>
+        <v>-3.382653961845381</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.03259816345290736</v>
+        <v>-0.3045508146426849</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3099760106680898</v>
       </c>
       <c r="E79" t="n">
-        <v>1.377385351098739</v>
+        <v>0.6341537021131811</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.18943597081701</v>
+        <v>-3.345487835487062</v>
       </c>
       <c r="G79" t="n">
-        <v>0.004850356178746655</v>
+        <v>-0.2638684955829127</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2670334628388855</v>
       </c>
       <c r="E80" t="n">
-        <v>1.415351083464275</v>
+        <v>0.6954196241718468</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.144614425084487</v>
+        <v>-3.317430874435974</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.003319531286293581</v>
+        <v>-0.2828980206974521</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2227174373478583</v>
       </c>
       <c r="E81" t="n">
-        <v>1.547781940165228</v>
+        <v>0.8633533535456268</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.031663519917853</v>
+        <v>-3.194986858896094</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.02682099480274975</v>
+        <v>-0.3000971738610706</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1773008475299284</v>
       </c>
       <c r="E82" t="n">
-        <v>1.620357621332832</v>
+        <v>0.9538405752272919</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.915772492128955</v>
+        <v>-3.074485440711658</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.005090131010893194</v>
+        <v>-0.2582511261500631</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.130911555881491</v>
       </c>
       <c r="E83" t="n">
-        <v>1.797119342581864</v>
+        <v>1.141477182142741</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.779653445095707</v>
+        <v>-2.936543340775609</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03988054032709461</v>
+        <v>-0.2240028603093062</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.08395905748885245</v>
       </c>
       <c r="E84" t="n">
-        <v>1.995163026004665</v>
+        <v>1.419697988127459</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.697487371206915</v>
+        <v>-2.846308626254118</v>
       </c>
       <c r="G84" t="n">
-        <v>0.003288959246271627</v>
+        <v>-0.2562011827555129</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.03727852050493227</v>
       </c>
       <c r="E85" t="n">
-        <v>2.151308208538259</v>
+        <v>1.626853886460876</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.485421611425676</v>
+        <v>-2.629327515738966</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04742403925711459</v>
+        <v>-0.2064072587058014</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.007110550894792973</v>
       </c>
       <c r="E86" t="n">
-        <v>2.305949936603668</v>
+        <v>1.875209316587948</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.302021513530919</v>
+        <v>-2.425944586711912</v>
       </c>
       <c r="G86" t="n">
-        <v>0.05122201531122475</v>
+        <v>-0.2259106921861741</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.047168815811879</v>
       </c>
       <c r="E87" t="n">
-        <v>2.419285396756993</v>
+        <v>2.039675646914415</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.038059433127217</v>
+        <v>-2.166203157391308</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06734709816308991</v>
+        <v>-0.212504025790575</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.08096596990849621</v>
       </c>
       <c r="E88" t="n">
-        <v>2.514884363630483</v>
+        <v>2.228410720968688</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.735397275863175</v>
+        <v>-1.849398159474831</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08095320861998559</v>
+        <v>-0.1723773444673203</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1067370587624437</v>
       </c>
       <c r="E89" t="n">
-        <v>2.549093594547928</v>
+        <v>2.294033306421365</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.537814082551318</v>
+        <v>-1.619154323843793</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03157281078910932</v>
+        <v>-0.1959410198928047</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1230715101501423</v>
       </c>
       <c r="E90" t="n">
-        <v>2.613237732280168</v>
+        <v>2.413386243971485</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.317913891677251</v>
+        <v>-1.424961069653302</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0299772582987364</v>
+        <v>-0.211085350296459</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1286400395000461</v>
       </c>
       <c r="E91" t="n">
-        <v>2.620326230385334</v>
+        <v>2.431990044453654</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9565596776104194</v>
+        <v>-1.097075642802344</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03768665565283185</v>
+        <v>-0.174905465672441</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.123072000470157</v>
       </c>
       <c r="E92" t="n">
-        <v>2.550164615256298</v>
+        <v>2.368585130581633</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7515781464896087</v>
+        <v>-0.9313089615930498</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02596824969047141</v>
+        <v>-0.1793499576439041</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1069183011320879</v>
       </c>
       <c r="E93" t="n">
-        <v>2.480773939862671</v>
+        <v>2.301602422019808</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4410150767789722</v>
+        <v>-0.6812573420639414</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05045115158199976</v>
+        <v>-0.1968583405906338</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08198075097779127</v>
       </c>
       <c r="E94" t="n">
-        <v>2.430877549139266</v>
+        <v>2.237089892198813</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.180071493804497</v>
+        <v>-0.4383564325490274</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09147807582413463</v>
+        <v>-0.1829997229735645</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05137741427636589</v>
       </c>
       <c r="E95" t="n">
-        <v>2.286439793995851</v>
+        <v>2.083670445169606</v>
       </c>
       <c r="F95" t="n">
-        <v>0.03035967856305743</v>
+        <v>-0.2352992011633569</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.135326493116906</v>
+        <v>-0.1926017041876091</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.01865991813692372</v>
       </c>
       <c r="E96" t="n">
-        <v>2.130553827749876</v>
+        <v>1.938745973326147</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1955457152880875</v>
+        <v>-0.08376806854936242</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.189655787318916</v>
+        <v>-0.2095782363042146</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01208001904303834</v>
       </c>
       <c r="E97" t="n">
-        <v>1.960759230391337</v>
+        <v>1.788410285238578</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3243725507101355</v>
+        <v>0.08478777991470063</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2058851666065051</v>
+        <v>-0.2070568242265381</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03848334830516224</v>
       </c>
       <c r="E98" t="n">
-        <v>1.755575205605847</v>
+        <v>1.605150469099473</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4211041402803473</v>
+        <v>0.1941843723375858</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3352286048417588</v>
+        <v>-0.2837360517073039</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.05946569571715076</v>
       </c>
       <c r="E99" t="n">
-        <v>1.595630217256113</v>
+        <v>1.488712342463532</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4727113585020307</v>
+        <v>0.2993938593145956</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3227093730308281</v>
+        <v>-0.2660483520816103</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.07694961262735207</v>
       </c>
       <c r="E100" t="n">
-        <v>1.422223669649872</v>
+        <v>1.331638250739251</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4982639852543906</v>
+        <v>0.3507070957700864</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4137009991121639</v>
+        <v>-0.3383190729108412</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.09260110885978286</v>
       </c>
       <c r="E101" t="n">
-        <v>1.294408082709873</v>
+        <v>1.262783695620486</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5072694640465757</v>
+        <v>0.406351988871842</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4153514444634441</v>
+        <v>-0.3531047699565676</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1115442570482507</v>
       </c>
       <c r="E102" t="n">
-        <v>1.091382567199393</v>
+        <v>1.12705255813765</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4646841924753495</v>
+        <v>0.4164693530577387</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4514935140055038</v>
+        <v>-0.3942329410310426</v>
       </c>
     </row>
   </sheetData>
